--- a/enf_belirsizlik.xlsx
+++ b/enf_belirsizlik.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,31 +448,31 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>41305</v>
+        <v>41698</v>
       </c>
       <c r="B2" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>41333</v>
+        <v>41729</v>
       </c>
       <c r="B3" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>41364</v>
+        <v>41759</v>
       </c>
       <c r="B4" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>41394</v>
+        <v>41790</v>
       </c>
       <c r="B5" t="n">
         <v>0.26</v>
@@ -480,455 +480,455 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>41425</v>
+        <v>41820</v>
       </c>
       <c r="B6" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>41455</v>
+        <v>41851</v>
       </c>
       <c r="B7" t="n">
-        <v>0.42</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>41486</v>
+        <v>41882</v>
       </c>
       <c r="B8" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>41517</v>
+        <v>41912</v>
       </c>
       <c r="B9" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>41547</v>
+        <v>41943</v>
       </c>
       <c r="B10" t="n">
-        <v>0.23</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>41578</v>
+        <v>41973</v>
       </c>
       <c r="B11" t="n">
-        <v>0.41</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>41608</v>
+        <v>42004</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>41639</v>
+        <v>42035</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>41670</v>
+        <v>42063</v>
       </c>
       <c r="B14" t="n">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>41698</v>
+        <v>42094</v>
       </c>
       <c r="B15" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>41729</v>
+        <v>42124</v>
       </c>
       <c r="B16" t="n">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>41759</v>
+        <v>42155</v>
       </c>
       <c r="B17" t="n">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>41790</v>
+        <v>42185</v>
       </c>
       <c r="B18" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>41820</v>
+        <v>42216</v>
       </c>
       <c r="B19" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>41851</v>
+        <v>42247</v>
       </c>
       <c r="B20" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>41882</v>
+        <v>42277</v>
       </c>
       <c r="B21" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>41912</v>
+        <v>42308</v>
       </c>
       <c r="B22" t="n">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>41943</v>
+        <v>42338</v>
       </c>
       <c r="B23" t="n">
-        <v>0.61</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>41973</v>
+        <v>42369</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>42004</v>
+        <v>42400</v>
       </c>
       <c r="B25" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>42035</v>
+        <v>42429</v>
       </c>
       <c r="B26" t="n">
-        <v>0.37</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>42063</v>
+        <v>42460</v>
       </c>
       <c r="B27" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>42094</v>
+        <v>42490</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>42124</v>
+        <v>42521</v>
       </c>
       <c r="B29" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>42155</v>
+        <v>42551</v>
       </c>
       <c r="B30" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>42185</v>
+        <v>42582</v>
       </c>
       <c r="B31" t="n">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>42216</v>
+        <v>42613</v>
       </c>
       <c r="B32" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>42247</v>
+        <v>42643</v>
       </c>
       <c r="B33" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42277</v>
+        <v>42674</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42308</v>
+        <v>42704</v>
       </c>
       <c r="B35" t="n">
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42338</v>
+        <v>42735</v>
       </c>
       <c r="B36" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42369</v>
+        <v>42766</v>
       </c>
       <c r="B37" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42400</v>
+        <v>42794</v>
       </c>
       <c r="B38" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42429</v>
+        <v>42825</v>
       </c>
       <c r="B39" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42460</v>
+        <v>42855</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42490</v>
+        <v>42886</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42521</v>
+        <v>42916</v>
       </c>
       <c r="B42" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42551</v>
+        <v>42947</v>
       </c>
       <c r="B43" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42582</v>
+        <v>42978</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42613</v>
+        <v>43008</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42643</v>
+        <v>43039</v>
       </c>
       <c r="B46" t="n">
-        <v>0.22</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42674</v>
+        <v>43069</v>
       </c>
       <c r="B47" t="n">
-        <v>0.49</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42704</v>
+        <v>43100</v>
       </c>
       <c r="B48" t="n">
-        <v>0.23</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42735</v>
+        <v>43131</v>
       </c>
       <c r="B49" t="n">
-        <v>0.32</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42766</v>
+        <v>43159</v>
       </c>
       <c r="B50" t="n">
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42794</v>
+        <v>43190</v>
       </c>
       <c r="B51" t="n">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42825</v>
+        <v>43220</v>
       </c>
       <c r="B52" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42855</v>
+        <v>43251</v>
       </c>
       <c r="B53" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42886</v>
+        <v>43281</v>
       </c>
       <c r="B54" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42916</v>
+        <v>43312</v>
       </c>
       <c r="B55" t="n">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42947</v>
+        <v>43343</v>
       </c>
       <c r="B56" t="n">
-        <v>0.23</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42978</v>
+        <v>43373</v>
       </c>
       <c r="B57" t="n">
-        <v>0.22</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43008</v>
+        <v>43404</v>
       </c>
       <c r="B58" t="n">
-        <v>0.22</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43039</v>
+        <v>43434</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43069</v>
+        <v>43465</v>
       </c>
       <c r="B60" t="n">
-        <v>0.28</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43100</v>
+        <v>43496</v>
       </c>
       <c r="B61" t="n">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43131</v>
+        <v>43524</v>
       </c>
       <c r="B62" t="n">
         <v>0.44</v>
@@ -936,151 +936,151 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43159</v>
+        <v>43555</v>
       </c>
       <c r="B63" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43190</v>
+        <v>43585</v>
       </c>
       <c r="B64" t="n">
-        <v>0.17</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43220</v>
+        <v>43616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.31</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43251</v>
+        <v>43646</v>
       </c>
       <c r="B66" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43281</v>
+        <v>43677</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43312</v>
+        <v>43708</v>
       </c>
       <c r="B68" t="n">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43343</v>
+        <v>43738</v>
       </c>
       <c r="B69" t="n">
-        <v>0.71</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43373</v>
+        <v>43769</v>
       </c>
       <c r="B70" t="n">
-        <v>0.77</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43404</v>
+        <v>43799</v>
       </c>
       <c r="B71" t="n">
-        <v>1.11</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43434</v>
+        <v>43830</v>
       </c>
       <c r="B72" t="n">
-        <v>0.57</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43465</v>
+        <v>43861</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43496</v>
+        <v>43890</v>
       </c>
       <c r="B74" t="n">
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43524</v>
+        <v>43921</v>
       </c>
       <c r="B75" t="n">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43555</v>
+        <v>43951</v>
       </c>
       <c r="B76" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43585</v>
+        <v>43982</v>
       </c>
       <c r="B77" t="n">
-        <v>0.58</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43616</v>
+        <v>44012</v>
       </c>
       <c r="B78" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43646</v>
+        <v>44043</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43677</v>
+        <v>44074</v>
       </c>
       <c r="B80" t="n">
-        <v>0.62</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43708</v>
+        <v>44104</v>
       </c>
       <c r="B81" t="n">
         <v>0.46</v>
@@ -1088,207 +1088,207 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43738</v>
+        <v>44135</v>
       </c>
       <c r="B82" t="n">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43769</v>
+        <v>44165</v>
       </c>
       <c r="B83" t="n">
-        <v>0.58</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43799</v>
+        <v>44196</v>
       </c>
       <c r="B84" t="n">
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43830</v>
+        <v>44227</v>
       </c>
       <c r="B85" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43861</v>
+        <v>44255</v>
       </c>
       <c r="B86" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43890</v>
+        <v>44286</v>
       </c>
       <c r="B87" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43921</v>
+        <v>44316</v>
       </c>
       <c r="B88" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43951</v>
+        <v>44347</v>
       </c>
       <c r="B89" t="n">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43982</v>
+        <v>44377</v>
       </c>
       <c r="B90" t="n">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44012</v>
+        <v>44408</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44043</v>
+        <v>44439</v>
       </c>
       <c r="B92" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44074</v>
+        <v>44469</v>
       </c>
       <c r="B93" t="n">
-        <v>0.26</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44104</v>
+        <v>44500</v>
       </c>
       <c r="B94" t="n">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44135</v>
+        <v>44530</v>
       </c>
       <c r="B95" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44165</v>
+        <v>44561</v>
       </c>
       <c r="B96" t="n">
-        <v>0.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44196</v>
+        <v>44592</v>
       </c>
       <c r="B97" t="n">
-        <v>0.38</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44227</v>
+        <v>44620</v>
       </c>
       <c r="B98" t="n">
-        <v>0.31</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44255</v>
+        <v>44651</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44286</v>
+        <v>44681</v>
       </c>
       <c r="B100" t="n">
-        <v>0.21</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44316</v>
+        <v>44712</v>
       </c>
       <c r="B101" t="n">
-        <v>0.44</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44347</v>
+        <v>44742</v>
       </c>
       <c r="B102" t="n">
-        <v>0.34</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44377</v>
+        <v>44773</v>
       </c>
       <c r="B103" t="n">
-        <v>0.48</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44408</v>
+        <v>44804</v>
       </c>
       <c r="B104" t="n">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44439</v>
+        <v>44834</v>
       </c>
       <c r="B105" t="n">
-        <v>0.36</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44469</v>
+        <v>44865</v>
       </c>
       <c r="B106" t="n">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44500</v>
+        <v>44895</v>
       </c>
       <c r="B107" t="n">
         <v>0.49</v>
@@ -1296,282 +1296,186 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44530</v>
+        <v>44926</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44561</v>
+        <v>44957</v>
       </c>
       <c r="B109" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44592</v>
+        <v>44985</v>
       </c>
       <c r="B110" t="n">
-        <v>2.63</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44620</v>
+        <v>45016</v>
       </c>
       <c r="B111" t="n">
-        <v>2.04</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44651</v>
+        <v>45046</v>
       </c>
       <c r="B112" t="n">
-        <v>1.53</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44681</v>
+        <v>45077</v>
       </c>
       <c r="B113" t="n">
-        <v>1.11</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44712</v>
+        <v>45107</v>
       </c>
       <c r="B114" t="n">
-        <v>1.52</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44742</v>
+        <v>45138</v>
       </c>
       <c r="B115" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44773</v>
+        <v>45169</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44804</v>
+        <v>45199</v>
       </c>
       <c r="B117" t="n">
-        <v>0.75</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44834</v>
+        <v>45230</v>
       </c>
       <c r="B118" t="n">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44865</v>
+        <v>45260</v>
       </c>
       <c r="B119" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44895</v>
+        <v>45291</v>
       </c>
       <c r="B120" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44926</v>
+        <v>45322</v>
       </c>
       <c r="B121" t="n">
-        <v>0.73</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44957</v>
+        <v>45351</v>
       </c>
       <c r="B122" t="n">
-        <v>1.15</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44985</v>
+        <v>45382</v>
       </c>
       <c r="B123" t="n">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45016</v>
+        <v>45412</v>
       </c>
       <c r="B124" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45046</v>
+        <v>45443</v>
       </c>
       <c r="B125" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45077</v>
+        <v>45473</v>
       </c>
       <c r="B126" t="n">
-        <v>0.57</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45107</v>
+        <v>45504</v>
       </c>
       <c r="B127" t="n">
-        <v>1.22</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45138</v>
+        <v>45535</v>
       </c>
       <c r="B128" t="n">
-        <v>1.33</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45169</v>
+        <v>45565</v>
       </c>
       <c r="B129" t="n">
-        <v>1.25</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45199</v>
+        <v>45596</v>
       </c>
       <c r="B130" t="n">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
-        <v>45230</v>
-      </c>
-      <c r="B131" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="B132" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>45291</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
-        <v>45382</v>
-      </c>
-      <c r="B136" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
-        <v>45412</v>
-      </c>
-      <c r="B137" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
-        <v>45443</v>
-      </c>
-      <c r="B138" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>45473</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>45504</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>45535</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
